--- a/GraphOutPut.xlsx
+++ b/GraphOutPut.xlsx
@@ -5,18 +5,19 @@
   <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\titansax3\Documents\UiPath\GraphInteractionExercise\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\UiPath\RPA0001_GraphInteractionUsers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95351B3D-7DB2-4F0F-B2D6-8109BFF40CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C7F06E5-3C8E-4028-9112-ECB4D4124073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="0" activeTab="0" xr2:uid="{AB249C89-AE04-4065-B1EE-24A3645FFBC6}"/>
+    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" firstSheet="0" activeTab="0" xr2:uid="{AB249C89-AE04-4065-B1EE-24A3645FFBC6}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="191029"/>
+  <x:fileRecoveryPr repairLoad="1"/>
   <x:extLst>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,33 +36,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <x:si>
-    <x:t>328e7e8a-5b8b-4e39-8d0f-667d76bd380b</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ManuelPortero@manuelportero.onmicrosoft.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Portero</x:t>
-  </x:si>
-  <x:si>
-    <x:t>d8f91fd5-c2e8-4cc7-9759-ff3d1bdc6afd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user1@manuelportero.onmicrosoft.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>034ec7c8-9a28-4ee8-8f76-8a104e99f545</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user2@manuelportero.onmicrosoft.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>abbf988b-d0dc-4946-92ee-5d2a9c28b32e</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user3@manuelportero.onmicrosoft.com</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <x:si>
+    <x:t>d0461964-21df-40c3-9f36-899bff1d35e4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>manuelportero@t8656.onmicrosoft.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Portero Leiva</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45d00dc8-a959-4e57-89fb-5306d449c707</x:t>
+  </x:si>
+  <x:si>
+    <x:t>martiuser@t8656.onmicrosoft.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>66833aaf-2189-4716-a061-826dde30355c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user1@t8656.onmicrosoft.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ce59a746-e71a-4af2-9711-616557120c72</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user2@t8656.onmicrosoft.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bc0c97b1-20fe-4458-a846-f770adecdd66</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user3@t8656.onmicrosoft.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>b0993097-f95c-4e9a-ad3d-e5fdffdb7b41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>usertest@t8656.onmicrosoft.com</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -110,8 +123,9 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
+  <x:cellXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -136,17 +150,17 @@
 <x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D2" totalsRowShown="0">
   <x:autoFilter ref="A1:D2"/>
   <x:tableColumns count="4">
-    <x:tableColumn id="1" name="Column1"/>
-    <x:tableColumn id="2" name="Column2"/>
-    <x:tableColumn id="3" name="Column3"/>
-    <x:tableColumn id="4" name="Column4"/>
+    <x:tableColumn id="1" name="Columna1"/>
+    <x:tableColumn id="2" name="Columna2"/>
+    <x:tableColumn id="3" name="Columna3"/>
+    <x:tableColumn id="4" name="Columna4"/>
   </x:tableColumns>
   <x:tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </x:table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -445,81 +459,147 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D1"/>
+  <x:dimension ref="A1:D19"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="D8" sqref="D8 D8:D8"/>
+      <x:selection activeCell="F9" sqref="F9 F9:F9"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:sheetFormatPr baseColWidth="10" defaultColWidth="9.85125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:cols>
-    <x:col min="1" max="1" width="13.855469" style="1" customWidth="1"/>
-    <x:col min="2" max="2" width="24.855469" style="1" customWidth="1"/>
-    <x:col min="3" max="3" width="15.570312" style="1" customWidth="1"/>
-    <x:col min="4" max="4" width="14.710938" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="13.855469" style="2" customWidth="1"/>
+    <x:col min="2" max="2" width="24.855469" style="2" customWidth="1"/>
+    <x:col min="3" max="3" width="15.570312" style="2" customWidth="1"/>
+    <x:col min="4" max="4" width="14.710938" style="2" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <x:c r="A1" s="1" t="s"/>
-      <x:c r="B1" s="1" t="s"/>
-      <x:c r="C1" s="1" t="s"/>
-      <x:c r="D1" s="1" t="s"/>
-    </x:row>
-    <x:row r="2" spans="1:4">
-      <x:c r="A2" s="1" t="s">
+    <x:row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A1" s="2" t="s"/>
+      <x:c r="B1" s="2" t="s"/>
+      <x:c r="C1" s="2" t="s"/>
+      <x:c r="D1" s="2" t="s"/>
+    </x:row>
+    <x:row r="2" spans="1:6">
+      <x:c r="A2" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B2" s="1" t="s">
+      <x:c r="B2" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C2" s="1" t="s">
+      <x:c r="C2" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D2" s="1" t="s">
+      <x:c r="D2" s="2" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:4">
-      <x:c r="A3" s="1" t="s">
+    <x:row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A3" s="2" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B3" s="1" t="s">
+      <x:c r="B3" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C3" s="1" t="s"/>
-      <x:c r="D3" s="1" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:4">
-      <x:c r="A4" s="1" t="s">
+      <x:c r="C3" s="2" t="s"/>
+      <x:c r="D3" s="2" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A4" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B4" s="1" t="s">
+      <x:c r="B4" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C4" s="1" t="s"/>
-      <x:c r="D4" s="1" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:4">
-      <x:c r="A5" s="1" t="s">
+      <x:c r="C4" s="2" t="s"/>
+      <x:c r="D4" s="2" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A5" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B5" s="1" t="s">
+      <x:c r="B5" s="2" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C5" s="1" t="s"/>
-      <x:c r="D5" s="1" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:4">
-      <x:c r="A6" s="1" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B6" s="1" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:4">
-      <x:c r="D8" s="1" t="s"/>
-    </x:row>
+      <x:c r="C5" s="2" t="s"/>
+      <x:c r="D5" s="2" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A6" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s"/>
+      <x:c r="D6" s="2" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A7" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s"/>
+      <x:c r="D7" s="2" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A8" s="2" t="s"/>
+      <x:c r="B8" s="2" t="s"/>
+      <x:c r="C8" s="2" t="s"/>
+      <x:c r="D8" s="2" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A9" s="2" t="s"/>
+      <x:c r="B9" s="2" t="s"/>
+      <x:c r="C9" s="2" t="s"/>
+      <x:c r="D9" s="2" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A10" s="2" t="s"/>
+      <x:c r="B10" s="2" t="s"/>
+      <x:c r="C10" s="2" t="s"/>
+      <x:c r="D10" s="2" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A11" s="2" t="s"/>
+      <x:c r="B11" s="2" t="s"/>
+      <x:c r="C11" s="2" t="s"/>
+      <x:c r="D11" s="2" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A12" s="2" t="s"/>
+      <x:c r="B12" s="2" t="s"/>
+      <x:c r="C12" s="2" t="s"/>
+      <x:c r="D12" s="2" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A13" s="2" t="s"/>
+      <x:c r="B13" s="2" t="s"/>
+      <x:c r="C13" s="2" t="s"/>
+      <x:c r="D13" s="2" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A14" s="2" t="s"/>
+      <x:c r="B14" s="2" t="s"/>
+      <x:c r="C14" s="2" t="s"/>
+      <x:c r="D14" s="2" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A15" s="2" t="s"/>
+      <x:c r="B15" s="2" t="s"/>
+      <x:c r="C15" s="2" t="s"/>
+      <x:c r="D15" s="2" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="A16" s="2" t="s"/>
+      <x:c r="B16" s="2" t="s"/>
+      <x:c r="C16" s="2" t="s"/>
+      <x:c r="D16" s="2" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:6" x14ac:dyDescent="0.25"/>
+    <x:row r="18" spans="1:6" x14ac:dyDescent="0.25"/>
+    <x:row r="19" spans="1:6" x14ac:dyDescent="0.25"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
